--- a/Data/H20AutoML_treemodels_importances.xlsx
+++ b/Data/H20AutoML_treemodels_importances.xlsx
@@ -1,100 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelfreistein/Desktop/exercises/UrbanTech/project_final/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54245E17-A515-AE42-9D31-CD185A40BFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Anteil Frauen</t>
-  </si>
-  <si>
-    <t>Anteil E_U1</t>
-  </si>
-  <si>
-    <t>Anteil E_1U6</t>
-  </si>
-  <si>
-    <t>Anteil E_6U15</t>
-  </si>
-  <si>
-    <t>Anteil E_15U18</t>
-  </si>
-  <si>
-    <t>Anteil E_18U25</t>
-  </si>
-  <si>
-    <t>Anteil E_25U35</t>
-  </si>
-  <si>
-    <t>Anteil E_35U45</t>
-  </si>
-  <si>
-    <t>Anteil E_45U55</t>
-  </si>
-  <si>
-    <t>Anteil E_55U65</t>
-  </si>
-  <si>
-    <t>Anteil E_65U80</t>
-  </si>
-  <si>
-    <t>Anteil E_80U110</t>
-  </si>
-  <si>
-    <t>E insgesamt psqkm</t>
-  </si>
-  <si>
-    <t>Ausschank von Getränken psqkm</t>
-  </si>
-  <si>
-    <t>Spiel-, Wett- und Lotteriewesen psqkm</t>
-  </si>
-  <si>
-    <t>Einzelhandel mit Getränken psqkm</t>
-  </si>
-  <si>
-    <t>Einzelhandel mit Tabakwaren psqkm</t>
-  </si>
-  <si>
-    <t>num_street_lights psqkm</t>
-  </si>
-  <si>
-    <t>Unfall mit Leichtverletzten pro Einwohner</t>
-  </si>
-  <si>
-    <t>Unfall mit Schwerverletzten pro Einwohner</t>
-  </si>
-  <si>
-    <t>Unfall mit Getöteten pro Einwohner</t>
-  </si>
-  <si>
-    <t>WLEINF psqkm</t>
-  </si>
-  <si>
-    <t>WLMIT psqkm</t>
-  </si>
-  <si>
-    <t>WLGUT psqkm</t>
-  </si>
-  <si>
-    <t>WLNZORD psqkm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t>Bars, pubs and clubs</t>
+  </si>
+  <si>
+    <t>Casinos and betting stores</t>
+  </si>
+  <si>
+    <t>Liquor stores</t>
+  </si>
+  <si>
+    <t>Tobacco retail dealers</t>
+  </si>
+  <si>
+    <t>Total Population</t>
+  </si>
+  <si>
+    <t>Female Population</t>
+  </si>
+  <si>
+    <t>Male Population</t>
+  </si>
+  <si>
+    <t>Population  Infants</t>
+  </si>
+  <si>
+    <t>Population ages 1-6</t>
+  </si>
+  <si>
+    <t>Population ages 6-15</t>
+  </si>
+  <si>
+    <t>Population ages 15-18</t>
+  </si>
+  <si>
+    <t>Population ages 18-25</t>
+  </si>
+  <si>
+    <t>Population ages 25-35</t>
+  </si>
+  <si>
+    <t>Population ages 35-45</t>
+  </si>
+  <si>
+    <t>Population ages 45-55</t>
+  </si>
+  <si>
+    <t>Population ages 55-65</t>
+  </si>
+  <si>
+    <t>Population ages 65-80</t>
+  </si>
+  <si>
+    <t>Population ages 80-110</t>
+  </si>
+  <si>
+    <t>Simple residential area</t>
+  </si>
+  <si>
+    <t>Average residential area</t>
+  </si>
+  <si>
+    <t>Good residential area</t>
+  </si>
+  <si>
+    <t>Residential area without allocation</t>
+  </si>
+  <si>
+    <t>Area in square kilometers</t>
+  </si>
+  <si>
+    <t>Number of street lights</t>
+  </si>
+  <si>
+    <t>Accidents resulting in deaths</t>
+  </si>
+  <si>
+    <t>Accidents with major injuries</t>
+  </si>
+  <si>
+    <t>Accidents with minor injuries</t>
   </si>
   <si>
     <t>Straftaten insgesamt</t>
@@ -121,7 +121,7 @@
     <t>Diebstahl von Kraftwagen</t>
   </si>
   <si>
-    <t>Diebstahl aus Kfz</t>
+    <t>Diebstahl an/aus Kfz</t>
   </si>
   <si>
     <t>Fahrraddiebstahl</t>
@@ -133,6 +133,9 @@
     <t>Branddelikte insgesamt</t>
   </si>
   <si>
+    <t>Brandstiftung</t>
+  </si>
+  <si>
     <t>Sachbeschädigung insgesamt</t>
   </si>
   <si>
@@ -143,16 +146,13 @@
   </si>
   <si>
     <t>Kieztaten</t>
-  </si>
-  <si>
-    <t>Brandstiftung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,19 +215,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,27 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,24 +327,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,16 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,1365 +585,1473 @@
       <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>4.2567429611520012E-2</v>
+        <v>0.1296906529006463</v>
       </c>
       <c r="C2">
-        <v>5.6983331490471651E-3</v>
+        <v>0.09138345115184444</v>
       </c>
       <c r="D2">
-        <v>1.2336394712930609E-2</v>
+        <v>0.01350405704981616</v>
       </c>
       <c r="E2">
-        <v>1.7908456731959309E-2</v>
+        <v>0.2656384513440451</v>
       </c>
       <c r="F2">
-        <v>1.9304195217551449E-2</v>
+        <v>0.240558921773005</v>
       </c>
       <c r="G2">
-        <v>2.7805792932705391E-2</v>
+        <v>0.002413078661772164</v>
       </c>
       <c r="H2">
-        <v>5.4553068194782067E-3</v>
+        <v>0.0009466433603316258</v>
       </c>
       <c r="I2">
-        <v>4.6752409137889436E-3</v>
+        <v>0.001730080455034431</v>
       </c>
       <c r="J2">
-        <v>1.1621622801541311E-2</v>
+        <v>0.005896807701041801</v>
       </c>
       <c r="K2">
-        <v>3.4641520861476019E-3</v>
+        <v>0.003758866707883088</v>
       </c>
       <c r="L2">
-        <v>8.6726552087784316E-3</v>
+        <v>0.004347144919122227</v>
       </c>
       <c r="M2">
-        <v>1.0864408123174289E-2</v>
+        <v>0.02415259787672105</v>
       </c>
       <c r="N2">
-        <v>0.10417597945400491</v>
+        <v>0.01197583515222188</v>
       </c>
       <c r="O2">
-        <v>0.14775258312128231</v>
+        <v>0.008996146574503688</v>
       </c>
       <c r="P2">
-        <v>6.2739215947453131E-2</v>
+        <v>0.002616388885995735</v>
       </c>
       <c r="Q2">
-        <v>0.23730022781637591</v>
+        <v>0.002137863659661083</v>
       </c>
       <c r="R2">
-        <v>3.1793371083034143E-2</v>
+        <v>0.02067751779746833</v>
       </c>
       <c r="S2">
-        <v>0.16637597326396289</v>
+        <v>0.004670703224731411</v>
       </c>
       <c r="T2">
-        <v>2.9270883315353501E-2</v>
+        <v>0.007868034884027821</v>
       </c>
       <c r="U2">
-        <v>3.4402710685445289E-3</v>
+        <v>0.003425417057817308</v>
       </c>
       <c r="V2">
-        <v>1.1153798219307601E-3</v>
+        <v>0.008809237247636681</v>
       </c>
       <c r="W2">
-        <v>2.9567821184865541E-2</v>
+        <v>0.001770266680866275</v>
       </c>
       <c r="X2">
-        <v>8.2930324657488393E-3</v>
+        <v>0.009960246996651359</v>
       </c>
       <c r="Y2">
-        <v>6.7755917033670739E-3</v>
+        <v>0.02457941269448123</v>
       </c>
       <c r="Z2">
-        <v>1.0256814454539479E-3</v>
+        <v>0.0012421199682982</v>
+      </c>
+      <c r="AA2">
+        <v>0.004731234012084604</v>
+      </c>
+      <c r="AB2">
+        <v>0.102518821262291</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>4.5157922959822613E-2</v>
+        <v>0.301717337068422</v>
       </c>
       <c r="C3">
-        <v>1.194174749649729E-2</v>
+        <v>0.1600845023208255</v>
       </c>
       <c r="D3">
-        <v>4.3344633636744942E-2</v>
+        <v>0.02403576139639955</v>
       </c>
       <c r="E3">
-        <v>2.3354577686649121E-2</v>
+        <v>0.07973833680834792</v>
       </c>
       <c r="F3">
-        <v>6.3328737439730777E-3</v>
+        <v>0.007061295163418563</v>
       </c>
       <c r="G3">
-        <v>5.6579536337815081E-2</v>
+        <v>0.01184106158176159</v>
       </c>
       <c r="H3">
-        <v>8.4584303404313613E-3</v>
+        <v>0.006912292008223275</v>
       </c>
       <c r="I3">
-        <v>1.8783481474098269E-2</v>
+        <v>0.005312599529301091</v>
       </c>
       <c r="J3">
-        <v>8.6287452866833907E-3</v>
+        <v>0.01036572321590686</v>
       </c>
       <c r="K3">
-        <v>2.1510243604083629E-2</v>
+        <v>0.005933808775737845</v>
       </c>
       <c r="L3">
-        <v>7.2554207712555337E-3</v>
+        <v>0.005921579257668926</v>
       </c>
       <c r="M3">
-        <v>1.379930180444203E-2</v>
+        <v>0.02454314240376848</v>
       </c>
       <c r="N3">
-        <v>3.9923916515196237E-2</v>
+        <v>0.03789374342958285</v>
       </c>
       <c r="O3">
-        <v>0.2511234921808661</v>
+        <v>0.01129780927486572</v>
       </c>
       <c r="P3">
-        <v>0.1778659042769378</v>
+        <v>0.01156354936323582</v>
       </c>
       <c r="Q3">
-        <v>1.5988704750821179E-2</v>
+        <v>0.01901403951902125</v>
       </c>
       <c r="R3">
-        <v>5.7588562570695827E-2</v>
+        <v>0.03477096430844454</v>
       </c>
       <c r="S3">
-        <v>2.898739925912457E-2</v>
+        <v>0.004025667440353584</v>
       </c>
       <c r="T3">
-        <v>8.5103954080070709E-2</v>
+        <v>0.01043292306933981</v>
       </c>
       <c r="U3">
-        <v>3.3576866296088907E-2</v>
+        <v>0.01343194739750921</v>
       </c>
       <c r="V3">
-        <v>1.555718520453135E-3</v>
+        <v>0.01091217220189213</v>
       </c>
       <c r="W3">
-        <v>1.0348293127206471E-2</v>
+        <v>0.002748268844723064</v>
       </c>
       <c r="X3">
-        <v>2.1870694649244359E-2</v>
+        <v>0.007470166077278883</v>
       </c>
       <c r="Y3">
-        <v>8.62559807439571E-3</v>
+        <v>0.0209375392903915</v>
       </c>
       <c r="Z3">
-        <v>2.293980556402593E-3</v>
+        <v>0.001553444105267295</v>
+      </c>
+      <c r="AA3">
+        <v>0.01563517627657036</v>
+      </c>
+      <c r="AB3">
+        <v>0.1548451498717424</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>4.7271289881870467E-2</v>
+        <v>0.2999930086480643</v>
       </c>
       <c r="C4">
-        <v>1.337007136137862E-2</v>
+        <v>0.1361738854096909</v>
       </c>
       <c r="D4">
-        <v>3.2164925801114123E-2</v>
+        <v>0.043208779247529</v>
       </c>
       <c r="E4">
-        <v>2.7608883857207771E-2</v>
+        <v>0.07685486367618477</v>
       </c>
       <c r="F4">
-        <v>1.5392653110288229E-2</v>
+        <v>0.007226721326787938</v>
       </c>
       <c r="G4">
-        <v>4.4016319130561227E-2</v>
+        <v>0.01418970357520015</v>
       </c>
       <c r="H4">
-        <v>2.5808091991243811E-2</v>
+        <v>0.008670996738490588</v>
       </c>
       <c r="I4">
-        <v>1.9509524805999101E-2</v>
+        <v>0.01151826131303769</v>
       </c>
       <c r="J4">
-        <v>1.142326537461198E-2</v>
+        <v>0.007149149497172865</v>
       </c>
       <c r="K4">
-        <v>1.7293803266998989E-2</v>
+        <v>0.007769180451098045</v>
       </c>
       <c r="L4">
-        <v>2.5140533840362019E-2</v>
+        <v>0.009198987256861102</v>
       </c>
       <c r="M4">
-        <v>2.217566517978059E-2</v>
+        <v>0.03052282710533266</v>
       </c>
       <c r="N4">
-        <v>5.3002066356274441E-2</v>
+        <v>0.1018141597828721</v>
       </c>
       <c r="O4">
-        <v>0.25530338343918479</v>
+        <v>0.01007635043150766</v>
       </c>
       <c r="P4">
-        <v>0.1091713346656632</v>
+        <v>0.01660345412203807</v>
       </c>
       <c r="Q4">
-        <v>2.842592611548482E-2</v>
+        <v>0.01589363693668878</v>
       </c>
       <c r="R4">
-        <v>4.2069973940075563E-2</v>
+        <v>0.02834774170639628</v>
       </c>
       <c r="S4">
-        <v>9.8251570512007738E-2</v>
+        <v>0.008683767445342215</v>
       </c>
       <c r="T4">
-        <v>3.217706346665572E-2</v>
+        <v>0.01455517448395231</v>
       </c>
       <c r="U4">
-        <v>2.3503119482069641E-2</v>
+        <v>0.01398687756157172</v>
       </c>
       <c r="V4">
-        <v>3.4464094631581838E-3</v>
+        <v>0.005726691995253955</v>
       </c>
       <c r="W4">
-        <v>1.7878402391085579E-2</v>
+        <v>0.002792785481481437</v>
       </c>
       <c r="X4">
-        <v>2.166990146029615E-2</v>
+        <v>0.0100035829270377</v>
       </c>
       <c r="Y4">
-        <v>1.034332818704237E-2</v>
+        <v>0.02093789504421922</v>
       </c>
       <c r="Z4">
-        <v>3.5824929195848541E-3</v>
+        <v>0.00153821195923441</v>
+      </c>
+      <c r="AA4">
+        <v>0.01083538612114594</v>
+      </c>
+      <c r="AB4">
+        <v>0.08572791975580811</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>4.7689300720965742E-2</v>
+        <v>0.1058559414758517</v>
       </c>
       <c r="C5">
-        <v>8.5709335689355907E-3</v>
+        <v>0.05193440329219676</v>
       </c>
       <c r="D5">
-        <v>4.7196484782709651E-2</v>
+        <v>0.006340304184358983</v>
       </c>
       <c r="E5">
-        <v>8.7634997835527542E-2</v>
+        <v>0.1529289450201584</v>
       </c>
       <c r="F5">
-        <v>4.3058042086363086E-3</v>
+        <v>0.07940332832735787</v>
       </c>
       <c r="G5">
-        <v>6.1460884314653727E-2</v>
+        <v>0.06712482936548889</v>
       </c>
       <c r="H5">
-        <v>8.1228002010606364E-3</v>
+        <v>0.06301007511364623</v>
       </c>
       <c r="I5">
-        <v>2.4592722323976739E-2</v>
+        <v>0.006088613488721541</v>
       </c>
       <c r="J5">
-        <v>7.9031363627148007E-3</v>
+        <v>0.02023976163480918</v>
       </c>
       <c r="K5">
-        <v>1.511038757295897E-2</v>
+        <v>0.08196395136881669</v>
       </c>
       <c r="L5">
-        <v>9.7208910871066367E-3</v>
+        <v>0.05644799811488221</v>
       </c>
       <c r="M5">
-        <v>1.9836223364011071E-2</v>
+        <v>0.02121299997846075</v>
       </c>
       <c r="N5">
-        <v>3.1733042599054608E-2</v>
+        <v>0.0407300682275911</v>
       </c>
       <c r="O5">
-        <v>0.15438030458053609</v>
+        <v>0.00940654977286247</v>
       </c>
       <c r="P5">
-        <v>5.6166185847734203E-2</v>
+        <v>0.01959163603035125</v>
       </c>
       <c r="Q5">
-        <v>7.475577097730908E-2</v>
+        <v>0.07499361630009439</v>
       </c>
       <c r="R5">
-        <v>0.2474464905084883</v>
+        <v>0.04823094176682969</v>
       </c>
       <c r="S5">
-        <v>2.4798478039395201E-2</v>
+        <v>0.005926373067897961</v>
       </c>
       <c r="T5">
-        <v>1.434815894563576E-2</v>
+        <v>0.008186763005490814</v>
       </c>
       <c r="U5">
-        <v>8.1073505596754285E-3</v>
+        <v>0.005864996752762395</v>
       </c>
       <c r="V5">
-        <v>7.3550928002298643E-4</v>
+        <v>0.004334269459852657</v>
       </c>
       <c r="W5">
-        <v>2.2485475065102199E-2</v>
+        <v>0.001308366852493819</v>
       </c>
       <c r="X5">
-        <v>8.6015306485638515E-3</v>
+        <v>0.006986632316087045</v>
       </c>
       <c r="Y5">
-        <v>3.3746530626993401E-3</v>
+        <v>0.01078433318358432</v>
       </c>
       <c r="Z5">
-        <v>1.0922483542525429E-2</v>
+        <v>0.000688430664492158</v>
+      </c>
+      <c r="AA5">
+        <v>0.005716112304276674</v>
+      </c>
+      <c r="AB5">
+        <v>0.04469975893058403</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>5.4463260315625657E-2</v>
+        <v>0.3651107399112315</v>
       </c>
       <c r="C6">
-        <v>1.539068890982433E-2</v>
+        <v>0.1126241439265943</v>
       </c>
       <c r="D6">
-        <v>5.4635289093272879E-2</v>
+        <v>0.00250308476967348</v>
       </c>
       <c r="E6">
-        <v>8.5589121644953831E-2</v>
+        <v>0.125955236288865</v>
       </c>
       <c r="F6">
-        <v>1.1825717638266359E-2</v>
+        <v>0.006220943490213508</v>
       </c>
       <c r="G6">
-        <v>4.192569338843475E-2</v>
+        <v>0.00117511252296183</v>
       </c>
       <c r="H6">
-        <v>1.44435850140298E-2</v>
+        <v>0.002124615096136963</v>
       </c>
       <c r="I6">
-        <v>1.362230804358272E-2</v>
+        <v>0.003964440027561325</v>
       </c>
       <c r="J6">
-        <v>6.7562002267265034E-3</v>
+        <v>0.005634088594746846</v>
       </c>
       <c r="K6">
-        <v>1.1707099280962131E-2</v>
+        <v>0.005617309405236789</v>
       </c>
       <c r="L6">
-        <v>3.5988383367751037E-2</v>
+        <v>0.004394338450390058</v>
       </c>
       <c r="M6">
-        <v>7.0608726197301137E-3</v>
+        <v>0.03121217559013825</v>
       </c>
       <c r="N6">
-        <v>4.9912511329805391E-2</v>
+        <v>0.1264926672323771</v>
       </c>
       <c r="O6">
-        <v>0.33442205818811138</v>
+        <v>0.002253607338178403</v>
       </c>
       <c r="P6">
-        <v>0.12355889430813261</v>
+        <v>0.01055230550855785</v>
       </c>
       <c r="Q6">
-        <v>1.9961491828093338E-2</v>
+        <v>0.009430367323575732</v>
       </c>
       <c r="R6">
-        <v>2.5604419093868611E-2</v>
+        <v>0.09352685671752942</v>
       </c>
       <c r="S6">
-        <v>3.3961783273892758E-2</v>
+        <v>0.002688200818557288</v>
       </c>
       <c r="T6">
-        <v>1.1441839027360391E-2</v>
+        <v>0.01871058096153198</v>
       </c>
       <c r="U6">
-        <v>8.6983328561029138E-3</v>
+        <v>0.01061942927900601</v>
       </c>
       <c r="V6">
-        <v>2.2465998543512158E-3</v>
+        <v>0.001043990950731252</v>
       </c>
       <c r="W6">
-        <v>1.623633757033674E-2</v>
+        <v>0.001201488693606033</v>
       </c>
       <c r="X6">
-        <v>1.422336375725662E-2</v>
+        <v>0.009659409596599472</v>
       </c>
       <c r="Y6">
-        <v>2.9808873553948891E-3</v>
+        <v>0.004617418173130871</v>
       </c>
       <c r="Z6">
-        <v>3.34326201413297E-3</v>
+        <v>0.002348070734031282</v>
+      </c>
+      <c r="AA6">
+        <v>0.002627032836427269</v>
+      </c>
+      <c r="AB6">
+        <v>0.03769234576241025</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1.8143877286790039E-2</v>
+        <v>0.07284831848621044</v>
       </c>
       <c r="C7">
-        <v>5.4371924097572659E-3</v>
+        <v>0.0673021657889121</v>
       </c>
       <c r="D7">
-        <v>3.2938058713863828E-2</v>
+        <v>0.0103700388656494</v>
       </c>
       <c r="E7">
-        <v>3.2415412064674257E-2</v>
+        <v>0.0197299242436179</v>
       </c>
       <c r="F7">
-        <v>4.608409213212588E-2</v>
+        <v>0.0669996909362752</v>
       </c>
       <c r="G7">
-        <v>6.7706902199481347E-2</v>
+        <v>0.1017778590768117</v>
       </c>
       <c r="H7">
-        <v>7.9447648769887819E-3</v>
+        <v>0.07018218814007861</v>
       </c>
       <c r="I7">
-        <v>3.2914570452979207E-2</v>
+        <v>0.002956210960931135</v>
       </c>
       <c r="J7">
-        <v>8.2153050803728707E-3</v>
+        <v>0.04114993969696425</v>
       </c>
       <c r="K7">
-        <v>1.015690277998027E-2</v>
+        <v>0.1370250772541614</v>
       </c>
       <c r="L7">
-        <v>1.6453054498924379E-2</v>
+        <v>0.062512200223206</v>
       </c>
       <c r="M7">
-        <v>2.0793285650181969E-2</v>
+        <v>0.03828436013089255</v>
       </c>
       <c r="N7">
-        <v>8.6167659738142235E-2</v>
+        <v>0.02229183566003543</v>
       </c>
       <c r="O7">
-        <v>7.5185088663637101E-2</v>
+        <v>0.009340461874888578</v>
       </c>
       <c r="P7">
-        <v>0.38216334308490851</v>
+        <v>0.05895547469829281</v>
       </c>
       <c r="Q7">
-        <v>3.539735596976927E-2</v>
+        <v>0.09393283264637414</v>
       </c>
       <c r="R7">
-        <v>3.4611757973669617E-2</v>
+        <v>0.04561281865905237</v>
       </c>
       <c r="S7">
-        <v>2.0744475162162261E-2</v>
+        <v>0.003316639353287591</v>
       </c>
       <c r="T7">
-        <v>2.3811205830300861E-2</v>
+        <v>0.01027291567560365</v>
       </c>
       <c r="U7">
-        <v>6.0147706090576212E-3</v>
+        <v>0.006187957607936199</v>
       </c>
       <c r="V7">
-        <v>1.042804772175165E-3</v>
+        <v>0.01036499896921167</v>
       </c>
       <c r="W7">
-        <v>1.208972034397128E-2</v>
+        <v>0.001310720240552595</v>
       </c>
       <c r="X7">
-        <v>1.2743854206577769E-2</v>
+        <v>0.005111554247876317</v>
       </c>
       <c r="Y7">
-        <v>7.8968340891405302E-3</v>
+        <v>0.006861341113689875</v>
       </c>
       <c r="Z7">
-        <v>2.9277114103677029E-3</v>
+        <v>0.001225257434998743</v>
+      </c>
+      <c r="AA7">
+        <v>0.00828060578297842</v>
+      </c>
+      <c r="AB7">
+        <v>0.02579661223151091</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>1.801670884055586E-2</v>
+        <v>0.1818775961342821</v>
       </c>
       <c r="C8">
-        <v>2.332214444215501E-2</v>
+        <v>0.04522906366074828</v>
       </c>
       <c r="D8">
-        <v>4.8518888866761672E-2</v>
+        <v>0.01798445777950786</v>
       </c>
       <c r="E8">
-        <v>1.968554128686845E-2</v>
+        <v>0.361859246290071</v>
       </c>
       <c r="F8">
-        <v>9.2709722109298766E-3</v>
+        <v>0.07625600799364031</v>
       </c>
       <c r="G8">
-        <v>1.8483616280982659E-2</v>
+        <v>0.003563932245088287</v>
       </c>
       <c r="H8">
-        <v>2.765120824163914E-3</v>
+        <v>0.002897341167312208</v>
       </c>
       <c r="I8">
-        <v>4.8948627678080739E-3</v>
+        <v>0.002655013518431634</v>
       </c>
       <c r="J8">
-        <v>3.55394769063713E-3</v>
+        <v>0.003558264620041535</v>
       </c>
       <c r="K8">
-        <v>8.676273536772262E-3</v>
+        <v>0.002101721013550719</v>
       </c>
       <c r="L8">
-        <v>1.3894008234168609E-2</v>
+        <v>0.009281734389275056</v>
       </c>
       <c r="M8">
-        <v>1.1608351408620529E-2</v>
+        <v>0.005501424479699838</v>
       </c>
       <c r="N8">
-        <v>6.6874629341677302E-2</v>
+        <v>0.009609993661522058</v>
       </c>
       <c r="O8">
-        <v>0.26730405210191699</v>
+        <v>0.02626477154665262</v>
       </c>
       <c r="P8">
-        <v>3.7080294215214069E-2</v>
+        <v>0.01396986138633426</v>
       </c>
       <c r="Q8">
-        <v>0.15711930879071001</v>
+        <v>0.004506040501124966</v>
       </c>
       <c r="R8">
-        <v>5.6614960888042347E-2</v>
+        <v>0.01659888677040517</v>
       </c>
       <c r="S8">
-        <v>0.147054144541648</v>
+        <v>0.006190612112665015</v>
       </c>
       <c r="T8">
-        <v>4.751952373258015E-2</v>
+        <v>0.01229104335501369</v>
       </c>
       <c r="U8">
-        <v>4.3415747251176733E-3</v>
+        <v>0.004704141976447135</v>
       </c>
       <c r="V8">
-        <v>1.067433239813533E-3</v>
+        <v>0.006364722439557264</v>
       </c>
       <c r="W8">
-        <v>4.6167399474475622E-3</v>
+        <v>0.0006438595847404771</v>
       </c>
       <c r="X8">
-        <v>1.6395682276255621E-2</v>
+        <v>0.004034203592300735</v>
       </c>
       <c r="Y8">
-        <v>9.7965107924022996E-3</v>
+        <v>0.01297803854234022</v>
       </c>
       <c r="Z8">
-        <v>1.524709016750461E-3</v>
+        <v>0.0001178080255811531</v>
+      </c>
+      <c r="AA8">
+        <v>0.002911511289650396</v>
+      </c>
+      <c r="AB8">
+        <v>0.166048701924016</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>3.2666553234002638E-2</v>
+        <v>0.005299447910204994</v>
       </c>
       <c r="C9">
-        <v>1.4307991126635829E-2</v>
+        <v>0.0227195119141441</v>
       </c>
       <c r="D9">
-        <v>5.5935951981685182E-2</v>
+        <v>0.00246342360803252</v>
       </c>
       <c r="E9">
-        <v>4.1948357740553097E-2</v>
+        <v>0.01019299602387494</v>
       </c>
       <c r="F9">
-        <v>3.2358784077072038E-2</v>
+        <v>0.06588972285145674</v>
       </c>
       <c r="G9">
-        <v>3.7498256402022631E-2</v>
+        <v>0.009711518625623406</v>
       </c>
       <c r="H9">
-        <v>4.9876925146287852E-2</v>
+        <v>0.01706844940506077</v>
       </c>
       <c r="I9">
-        <v>1.144364464277919E-2</v>
+        <v>0.007017183978469061</v>
       </c>
       <c r="J9">
-        <v>3.2711151548533407E-2</v>
+        <v>0.006014154286335033</v>
       </c>
       <c r="K9">
-        <v>3.332046329331545E-2</v>
+        <v>0.01251431084940513</v>
       </c>
       <c r="L9">
-        <v>7.6454087484180991E-2</v>
+        <v>0.01965752057881753</v>
       </c>
       <c r="M9">
-        <v>3.0694250799517458E-2</v>
+        <v>0.01862845403228885</v>
       </c>
       <c r="N9">
-        <v>0.11328909690756481</v>
+        <v>0.02614139728418013</v>
       </c>
       <c r="O9">
-        <v>4.4041740828423208E-2</v>
+        <v>0.008654610732275348</v>
       </c>
       <c r="P9">
-        <v>3.7301849521101743E-2</v>
+        <v>0.1944558206403216</v>
       </c>
       <c r="Q9">
-        <v>1.962268033787716E-2</v>
+        <v>0.008567962948628171</v>
       </c>
       <c r="R9">
-        <v>1.9260072184942509E-2</v>
+        <v>0.03704658249307161</v>
       </c>
       <c r="S9">
-        <v>5.6465803080537023E-2</v>
+        <v>0.01841438118206007</v>
       </c>
       <c r="T9">
-        <v>2.0031907065856711E-2</v>
+        <v>0.02448585221332537</v>
       </c>
       <c r="U9">
-        <v>2.8962997574874218E-2</v>
+        <v>0.02160627049678022</v>
       </c>
       <c r="V9">
-        <v>3.637398729448846E-3</v>
+        <v>0.4012530059367495</v>
       </c>
       <c r="W9">
-        <v>4.4442380348857898E-2</v>
+        <v>0.00182384325559873</v>
       </c>
       <c r="X9">
-        <v>3.2273809895185308E-2</v>
+        <v>0.01728479925178114</v>
       </c>
       <c r="Y9">
-        <v>0.12649864877160591</v>
+        <v>0.01183379581377331</v>
       </c>
       <c r="Z9">
-        <v>4.9551972771389478E-3</v>
+        <v>0.002746826270323688</v>
+      </c>
+      <c r="AA9">
+        <v>0.01451738599746153</v>
+      </c>
+      <c r="AB9">
+        <v>0.01399077141995658</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>1.9169799656346881E-2</v>
+        <v>0.01211234455510123</v>
       </c>
       <c r="C10">
-        <v>4.0177449429765297E-2</v>
+        <v>0.1092984750358329</v>
       </c>
       <c r="D10">
-        <v>7.5534479045693853E-2</v>
+        <v>0.009056000159728598</v>
       </c>
       <c r="E10">
-        <v>1.720148285281492E-2</v>
+        <v>0.03533228649763958</v>
       </c>
       <c r="F10">
-        <v>1.0226266961275659E-2</v>
+        <v>0.2144497567737462</v>
       </c>
       <c r="G10">
-        <v>1.708768466646577E-2</v>
+        <v>0.005998187402984806</v>
       </c>
       <c r="H10">
-        <v>1.483426331081234E-2</v>
+        <v>0.02781061557362133</v>
       </c>
       <c r="I10">
-        <v>9.572444804072832E-3</v>
+        <v>0.008340505382571674</v>
       </c>
       <c r="J10">
-        <v>9.7707590291957486E-3</v>
+        <v>0.004351229130257217</v>
       </c>
       <c r="K10">
-        <v>1.6065545926018322E-2</v>
+        <v>0.004175206960951635</v>
       </c>
       <c r="L10">
-        <v>1.4719996807866179E-2</v>
+        <v>0.01098576539252622</v>
       </c>
       <c r="M10">
-        <v>4.6075524787913533E-2</v>
+        <v>0.0251206735391369</v>
       </c>
       <c r="N10">
-        <v>0.1217187961138096</v>
+        <v>0.01232599733444142</v>
       </c>
       <c r="O10">
-        <v>3.5909522344507387E-2</v>
+        <v>0.00789075481436226</v>
       </c>
       <c r="P10">
-        <v>0.22384920268201519</v>
+        <v>0.06668497848826267</v>
       </c>
       <c r="Q10">
-        <v>4.7798226703343077E-2</v>
+        <v>0.008118242429743192</v>
       </c>
       <c r="R10">
-        <v>7.4105031215191278E-3</v>
+        <v>0.08188425863396021</v>
       </c>
       <c r="S10">
-        <v>0.1464860695542457</v>
+        <v>0.008234168980011267</v>
       </c>
       <c r="T10">
-        <v>2.7219903766851641E-2</v>
+        <v>0.04381758647103479</v>
       </c>
       <c r="U10">
-        <v>1.5561282940119501E-2</v>
+        <v>0.008648366883520629</v>
       </c>
       <c r="V10">
-        <v>1.457486055034714E-3</v>
+        <v>0.1731528591898145</v>
       </c>
       <c r="W10">
-        <v>2.004691269495289E-2</v>
+        <v>0.002813083994933457</v>
       </c>
       <c r="X10">
-        <v>1.291434792026723E-2</v>
+        <v>0.004863723647833321</v>
       </c>
       <c r="Y10">
-        <v>4.5693010383613439E-2</v>
+        <v>0.0215662774462344</v>
       </c>
       <c r="Z10">
-        <v>3.4990384414791162E-3</v>
+        <v>0.0004233267133536548</v>
+      </c>
+      <c r="AA10">
+        <v>0.02875554431495571</v>
+      </c>
+      <c r="AB10">
+        <v>0.06378978425344024</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>9.4391109436222174E-3</v>
+        <v>0.07762765102193445</v>
       </c>
       <c r="C11">
-        <v>3.6263906058724522E-3</v>
+        <v>0.009309623852777558</v>
       </c>
       <c r="D11">
-        <v>3.2595003170327652E-2</v>
+        <v>0.313720341423694</v>
       </c>
       <c r="E11">
-        <v>2.2007170663134991E-2</v>
+        <v>0.02155294243942467</v>
       </c>
       <c r="F11">
-        <v>2.052690943653239E-2</v>
+        <v>0.184213380391451</v>
       </c>
       <c r="G11">
-        <v>1.670335561040669E-2</v>
+        <v>0.03009749091789428</v>
       </c>
       <c r="H11">
-        <v>1.8633092099406459E-2</v>
+        <v>0.04462296944156664</v>
       </c>
       <c r="I11">
-        <v>1.0960236917360601E-2</v>
+        <v>0.02423422374570628</v>
       </c>
       <c r="J11">
-        <v>1.1416100149725781E-2</v>
+        <v>0.006747455467945744</v>
       </c>
       <c r="K11">
-        <v>2.3515901127342139E-2</v>
+        <v>0.02034313164508839</v>
       </c>
       <c r="L11">
-        <v>1.220702148289517E-2</v>
+        <v>0.001712878638910522</v>
       </c>
       <c r="M11">
-        <v>8.4011810398873163E-3</v>
+        <v>0.006254563424889469</v>
       </c>
       <c r="N11">
-        <v>4.6442526427144262E-2</v>
+        <v>0.03313317834169029</v>
       </c>
       <c r="O11">
-        <v>0.13185007402528939</v>
+        <v>0.01073493641453793</v>
       </c>
       <c r="P11">
-        <v>4.148105743483145E-2</v>
+        <v>0.08507025298965745</v>
       </c>
       <c r="Q11">
-        <v>0.21337545760220691</v>
+        <v>0.01707209852528445</v>
       </c>
       <c r="R11">
-        <v>1.6634158580612068E-2</v>
+        <v>0.007280545667618974</v>
       </c>
       <c r="S11">
-        <v>0.2813402754896776</v>
+        <v>0.00284887293791175</v>
       </c>
       <c r="T11">
-        <v>1.079959637464476E-2</v>
+        <v>0.009762536663980607</v>
       </c>
       <c r="U11">
-        <v>8.9146446963658688E-3</v>
+        <v>0.007788937793947098</v>
       </c>
       <c r="V11">
-        <v>2.448840297964962E-3</v>
+        <v>0.02098848614860265</v>
       </c>
       <c r="W11">
-        <v>6.1165442871148178E-3</v>
+        <v>0.001328245154018397</v>
       </c>
       <c r="X11">
-        <v>1.110313527294225E-2</v>
+        <v>0.02060993005715163</v>
       </c>
       <c r="Y11">
-        <v>3.5761501514112469E-2</v>
+        <v>0.0141823430939943</v>
       </c>
       <c r="Z11">
-        <v>3.7007147505792779E-3</v>
+        <v>0.000148675081732938</v>
+      </c>
+      <c r="AA11">
+        <v>0.01763971636269442</v>
+      </c>
+      <c r="AB11">
+        <v>0.01097459235589412</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>4.1313941086109487E-2</v>
+        <v>0.01791515152119705</v>
       </c>
       <c r="C12">
-        <v>1.460829667656979E-2</v>
+        <v>0.04919198837706639</v>
       </c>
       <c r="D12">
-        <v>0.26231677996625957</v>
+        <v>0.02256170775845257</v>
       </c>
       <c r="E12">
-        <v>8.352597311480036E-3</v>
+        <v>0.01815798197372709</v>
       </c>
       <c r="F12">
-        <v>3.3855679152610292E-2</v>
+        <v>0.02531049836868604</v>
       </c>
       <c r="G12">
-        <v>1.7168338853160981E-2</v>
+        <v>0.07252184290792726</v>
       </c>
       <c r="H12">
-        <v>5.783012691596953E-3</v>
+        <v>0.01348857082717666</v>
       </c>
       <c r="I12">
-        <v>3.6076276777613783E-2</v>
+        <v>0.008553298485795899</v>
       </c>
       <c r="J12">
-        <v>1.9404969968510311E-2</v>
+        <v>0.01439701712155715</v>
       </c>
       <c r="K12">
-        <v>9.1587423358955138E-3</v>
+        <v>0.01575433464602675</v>
       </c>
       <c r="L12">
-        <v>2.5506917442353429E-2</v>
+        <v>0.01101210327472108</v>
       </c>
       <c r="M12">
-        <v>2.0081979750219619E-2</v>
+        <v>0.009422202642390508</v>
       </c>
       <c r="N12">
-        <v>2.6660103571260689E-2</v>
+        <v>0.01329976168414442</v>
       </c>
       <c r="O12">
-        <v>3.3094697101265037E-2</v>
+        <v>0.007900887026368387</v>
       </c>
       <c r="P12">
-        <v>0.22501919665888159</v>
+        <v>0.1882574872662984</v>
       </c>
       <c r="Q12">
-        <v>1.019269005831853E-2</v>
+        <v>0.0245438022185721</v>
       </c>
       <c r="R12">
-        <v>4.1800950082347852E-3</v>
+        <v>0.04046469636964314</v>
       </c>
       <c r="S12">
-        <v>1.9036093488114601E-2</v>
+        <v>0.0102011648353314</v>
       </c>
       <c r="T12">
-        <v>2.5760410357060809E-2</v>
+        <v>0.01419896660153082</v>
       </c>
       <c r="U12">
-        <v>2.7659998789084381E-3</v>
+        <v>0.01199022339748176</v>
       </c>
       <c r="V12">
-        <v>1.057153340698096E-2</v>
+        <v>0.2717524255729849</v>
       </c>
       <c r="W12">
-        <v>1.050242563125064E-2</v>
+        <v>0.003026168021564937</v>
       </c>
       <c r="X12">
-        <v>1.8739379258018791E-2</v>
+        <v>0.01882059851027431</v>
       </c>
       <c r="Y12">
-        <v>0.11743806885137301</v>
+        <v>0.03135034181492436</v>
       </c>
       <c r="Z12">
-        <v>2.4117747179522981E-3</v>
+        <v>0.008520600309603882</v>
+      </c>
+      <c r="AA12">
+        <v>0.0159915824006361</v>
+      </c>
+      <c r="AB12">
+        <v>0.06139459606591657</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>4.9360686766111952E-2</v>
+        <v>0.07882787679551936</v>
       </c>
       <c r="C13">
-        <v>1.9156883642239549E-2</v>
+        <v>0.03069860276364329</v>
       </c>
       <c r="D13">
-        <v>2.659196177408564E-2</v>
+        <v>0.01499874804455248</v>
       </c>
       <c r="E13">
-        <v>3.4312888193013528E-2</v>
+        <v>0.008813007845964381</v>
       </c>
       <c r="F13">
-        <v>2.1107671300544081E-2</v>
+        <v>0.08825174685109806</v>
       </c>
       <c r="G13">
-        <v>6.7371535082826575E-2</v>
+        <v>0.07793031072561976</v>
       </c>
       <c r="H13">
-        <v>2.645855201923103E-2</v>
+        <v>0.063452449915797</v>
       </c>
       <c r="I13">
-        <v>2.3336954638587731E-2</v>
+        <v>0.02037385873467658</v>
       </c>
       <c r="J13">
-        <v>3.4673406150732528E-2</v>
+        <v>0.0406469952779601</v>
       </c>
       <c r="K13">
-        <v>2.900413351431429E-2</v>
+        <v>0.1210466443915771</v>
       </c>
       <c r="L13">
-        <v>4.2103010745745018E-2</v>
+        <v>0.05117610759881037</v>
       </c>
       <c r="M13">
-        <v>2.1304931191091031E-2</v>
+        <v>0.05127177309298269</v>
       </c>
       <c r="N13">
-        <v>0.1089291052260463</v>
+        <v>0.04962694931183347</v>
       </c>
       <c r="O13">
-        <v>0.14592960203533689</v>
+        <v>0.02521593316271355</v>
       </c>
       <c r="P13">
-        <v>0.1256722611556447</v>
+        <v>0.0530766531385862</v>
       </c>
       <c r="Q13">
-        <v>3.4945622674041943E-2</v>
+        <v>0.07706619843211826</v>
       </c>
       <c r="R13">
-        <v>5.0359769850115518E-2</v>
+        <v>0.03565535040820517</v>
       </c>
       <c r="S13">
-        <v>2.5434018583185239E-2</v>
+        <v>0.01580573307613117</v>
       </c>
       <c r="T13">
-        <v>2.6290436852383331E-2</v>
+        <v>0.02089412949648347</v>
       </c>
       <c r="U13">
-        <v>1.6278047716982061E-2</v>
+        <v>0.0115080019257417</v>
       </c>
       <c r="V13">
-        <v>4.0505073310890356E-3</v>
+        <v>0.01350609129369866</v>
       </c>
       <c r="W13">
-        <v>2.0221576896303689E-2</v>
+        <v>0.005922927844739231</v>
       </c>
       <c r="X13">
-        <v>2.225930557597958E-2</v>
+        <v>0.01509038506744854</v>
       </c>
       <c r="Y13">
-        <v>9.9764487234468742E-3</v>
+        <v>0.007090561102274775</v>
       </c>
       <c r="Z13">
-        <v>1.487068236092183E-2</v>
+        <v>0.002216702319237453</v>
+      </c>
+      <c r="AA13">
+        <v>0.009043283614836925</v>
+      </c>
+      <c r="AB13">
+        <v>0.01079297776775024</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.06110994683509953</v>
+      </c>
+      <c r="C14">
+        <v>0.04285641942897003</v>
+      </c>
+      <c r="D14">
+        <v>0.01160208686587203</v>
+      </c>
+      <c r="E14">
+        <v>0.009265068403675374</v>
+      </c>
+      <c r="F14">
+        <v>0.08188514072725316</v>
+      </c>
+      <c r="G14">
+        <v>0.1766868212964967</v>
+      </c>
+      <c r="H14">
+        <v>0.1154048096273398</v>
+      </c>
+      <c r="I14">
+        <v>0.02790886901004248</v>
+      </c>
+      <c r="J14">
+        <v>0.03695729088476568</v>
+      </c>
+      <c r="K14">
+        <v>0.04450652965361396</v>
+      </c>
+      <c r="L14">
+        <v>0.03015297549064465</v>
+      </c>
+      <c r="M14">
+        <v>0.041266352357948</v>
+      </c>
+      <c r="N14">
+        <v>0.05380266146711105</v>
+      </c>
+      <c r="O14">
+        <v>0.02049246851150669</v>
+      </c>
+      <c r="P14">
+        <v>0.02942788890837448</v>
+      </c>
+      <c r="Q14">
+        <v>0.02994466362577855</v>
+      </c>
+      <c r="R14">
+        <v>0.04739844279149371</v>
+      </c>
+      <c r="S14">
+        <v>0.01365590920676191</v>
+      </c>
+      <c r="T14">
+        <v>0.02446686621790493</v>
+      </c>
+      <c r="U14">
+        <v>0.01229624688153556</v>
+      </c>
+      <c r="V14">
+        <v>0.0130030502979838</v>
+      </c>
+      <c r="W14">
+        <v>0.0076717462887108</v>
+      </c>
+      <c r="X14">
+        <v>0.02926355480368065</v>
+      </c>
+      <c r="Y14">
+        <v>0.006842096437370712</v>
+      </c>
+      <c r="Z14">
+        <v>0.003244200258117093</v>
+      </c>
+      <c r="AA14">
+        <v>0.01488338919682002</v>
+      </c>
+      <c r="AB14">
+        <v>0.01400450452512859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>0.1004489439071459</v>
+      </c>
+      <c r="C15">
+        <v>0.02685154772426957</v>
+      </c>
+      <c r="D15">
+        <v>0.02271509262760852</v>
+      </c>
+      <c r="E15">
+        <v>0.02386474712708538</v>
+      </c>
+      <c r="F15">
+        <v>0.0599641982483075</v>
+      </c>
+      <c r="G15">
+        <v>0.07571028264862938</v>
+      </c>
+      <c r="H15">
+        <v>0.08644263109921466</v>
+      </c>
+      <c r="I15">
+        <v>0.006293994614467858</v>
+      </c>
+      <c r="J15">
+        <v>0.1309333297468754</v>
+      </c>
+      <c r="K15">
+        <v>0.08414914054602968</v>
+      </c>
+      <c r="L15">
+        <v>0.06111104675538943</v>
+      </c>
+      <c r="M15">
+        <v>0.01696759318582135</v>
+      </c>
+      <c r="N15">
+        <v>0.05878108299336546</v>
+      </c>
+      <c r="O15">
+        <v>0.02436797699395106</v>
+      </c>
+      <c r="P15">
+        <v>0.05616220055285912</v>
+      </c>
+      <c r="Q15">
+        <v>0.05631692897965262</v>
+      </c>
+      <c r="R15">
+        <v>0.03208766560974612</v>
+      </c>
+      <c r="S15">
+        <v>0.003139363529846827</v>
+      </c>
+      <c r="T15">
+        <v>0.007703240362297817</v>
+      </c>
+      <c r="U15">
+        <v>0.004780156438576221</v>
+      </c>
+      <c r="V15">
+        <v>0.008660885564869637</v>
+      </c>
+      <c r="W15">
+        <v>0.0007854995633687922</v>
+      </c>
+      <c r="X15">
+        <v>0.008395374986405845</v>
+      </c>
+      <c r="Y15">
+        <v>0.004550171811903389</v>
+      </c>
+      <c r="Z15">
+        <v>0.0007573414678106583</v>
+      </c>
+      <c r="AA15">
+        <v>0.00325418340134292</v>
+      </c>
+      <c r="AB15">
+        <v>0.03480537951315885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14">
-        <v>3.8358249540701807E-2</v>
-      </c>
-      <c r="C14">
-        <v>3.5546596720981753E-2</v>
-      </c>
-      <c r="D14">
-        <v>4.0776974725355637E-2</v>
-      </c>
-      <c r="E14">
-        <v>3.2621969019690597E-2</v>
-      </c>
-      <c r="F14">
-        <v>2.2589604386175539E-2</v>
-      </c>
-      <c r="G14">
-        <v>7.9873559450114123E-2</v>
-      </c>
-      <c r="H14">
-        <v>3.6385619760670708E-2</v>
-      </c>
-      <c r="I14">
-        <v>2.3499942024407871E-2</v>
-      </c>
-      <c r="J14">
-        <v>3.5394029722164613E-2</v>
-      </c>
-      <c r="K14">
-        <v>3.2123021373367797E-2</v>
-      </c>
-      <c r="L14">
-        <v>3.3812657135606862E-2</v>
-      </c>
-      <c r="M14">
-        <v>2.5000112589089109E-2</v>
-      </c>
-      <c r="N14">
-        <v>6.3723390738761321E-2</v>
-      </c>
-      <c r="O14">
-        <v>0.14597933929164211</v>
-      </c>
-      <c r="P14">
-        <v>0.11995573653261191</v>
-      </c>
-      <c r="Q14">
-        <v>4.9370452788691739E-2</v>
-      </c>
-      <c r="R14">
-        <v>3.4638825729514357E-2</v>
-      </c>
-      <c r="S14">
-        <v>2.378599321546435E-2</v>
-      </c>
-      <c r="T14">
-        <v>2.245555012259895E-2</v>
-      </c>
-      <c r="U14">
-        <v>2.023854666925394E-2</v>
-      </c>
-      <c r="V14">
-        <v>8.7083527407822801E-3</v>
-      </c>
-      <c r="W14">
-        <v>2.26465107631066E-2</v>
-      </c>
-      <c r="X14">
-        <v>2.69853581803884E-2</v>
-      </c>
-      <c r="Y14">
-        <v>1.452653262674768E-2</v>
-      </c>
-      <c r="Z14">
-        <v>1.100307415211006E-2</v>
+      <c r="B16">
+        <v>0.1554480188814262</v>
+      </c>
+      <c r="C16">
+        <v>0.01460235153633618</v>
+      </c>
+      <c r="D16">
+        <v>0.02446460193520589</v>
+      </c>
+      <c r="E16">
+        <v>0.1874725396164596</v>
+      </c>
+      <c r="F16">
+        <v>0.009489133510966911</v>
+      </c>
+      <c r="G16">
+        <v>0.004810158556816451</v>
+      </c>
+      <c r="H16">
+        <v>0.01232195123078954</v>
+      </c>
+      <c r="I16">
+        <v>0.009025029471925192</v>
+      </c>
+      <c r="J16">
+        <v>0.02791548666012222</v>
+      </c>
+      <c r="K16">
+        <v>0.01273333064695355</v>
+      </c>
+      <c r="L16">
+        <v>0.007300192242670121</v>
+      </c>
+      <c r="M16">
+        <v>0.00835653911693781</v>
+      </c>
+      <c r="N16">
+        <v>0.1129930747848133</v>
+      </c>
+      <c r="O16">
+        <v>0.1129185270856917</v>
+      </c>
+      <c r="P16">
+        <v>0.009251933810274978</v>
+      </c>
+      <c r="Q16">
+        <v>0.007202056127376416</v>
+      </c>
+      <c r="R16">
+        <v>0.04654324462951452</v>
+      </c>
+      <c r="S16">
+        <v>0.0158446325808859</v>
+      </c>
+      <c r="T16">
+        <v>0.01721868248466664</v>
+      </c>
+      <c r="U16">
+        <v>0.01430110709930675</v>
+      </c>
+      <c r="V16">
+        <v>0.0164800607250654</v>
+      </c>
+      <c r="W16">
+        <v>0.006026194341240322</v>
+      </c>
+      <c r="X16">
+        <v>0.07441604216046287</v>
+      </c>
+      <c r="Y16">
+        <v>0.0254811815460942</v>
+      </c>
+      <c r="Z16">
+        <v>0.0002567157526097603</v>
+      </c>
+      <c r="AA16">
+        <v>0.01059860254087346</v>
+      </c>
+      <c r="AB16">
+        <v>0.0565286109245141</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>2.5269125523610481E-2</v>
-      </c>
-      <c r="C15">
-        <v>1.6926674969899521E-2</v>
-      </c>
-      <c r="D15">
-        <v>3.4076842852496139E-2</v>
-      </c>
-      <c r="E15">
-        <v>4.2448690944468639E-2</v>
-      </c>
-      <c r="F15">
-        <v>1.0903642437084511E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.7995017815035693E-2</v>
-      </c>
-      <c r="H15">
-        <v>6.3712148490310287E-3</v>
-      </c>
-      <c r="I15">
-        <v>1.3032142491888559E-2</v>
-      </c>
-      <c r="J15">
-        <v>9.614207158081034E-3</v>
-      </c>
-      <c r="K15">
-        <v>1.6958290616991129E-2</v>
-      </c>
-      <c r="L15">
-        <v>2.122244640645515E-2</v>
-      </c>
-      <c r="M15">
-        <v>1.3744144574536489E-2</v>
-      </c>
-      <c r="N15">
-        <v>5.4857742357948637E-2</v>
-      </c>
-      <c r="O15">
-        <v>0.33828734574723579</v>
-      </c>
-      <c r="P15">
-        <v>5.3877976341159629E-2</v>
-      </c>
-      <c r="Q15">
-        <v>0.1122427484326504</v>
-      </c>
-      <c r="R15">
-        <v>6.1195990510233743E-2</v>
-      </c>
-      <c r="S15">
-        <v>1.9330293226722049E-2</v>
-      </c>
-      <c r="T15">
-        <v>2.082023729659244E-2</v>
-      </c>
-      <c r="U15">
-        <v>1.6784009552305211E-2</v>
-      </c>
-      <c r="V15">
-        <v>5.2407102147253434E-3</v>
-      </c>
-      <c r="W15">
-        <v>2.711901526572328E-2</v>
-      </c>
-      <c r="X15">
-        <v>1.6991893229477979E-2</v>
-      </c>
-      <c r="Y15">
-        <v>7.7988304948486374E-3</v>
-      </c>
-      <c r="Z15">
-        <v>6.8907666907983851E-3</v>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>0.323922612191995</v>
+      </c>
+      <c r="C17">
+        <v>0.07625412893510169</v>
+      </c>
+      <c r="D17">
+        <v>0.04462275434897835</v>
+      </c>
+      <c r="E17">
+        <v>0.02456292895670326</v>
+      </c>
+      <c r="F17">
+        <v>0.009254002305227924</v>
+      </c>
+      <c r="G17">
+        <v>0.01533174730637316</v>
+      </c>
+      <c r="H17">
+        <v>0.01535630953367855</v>
+      </c>
+      <c r="I17">
+        <v>0.01461589457463295</v>
+      </c>
+      <c r="J17">
+        <v>0.01567271439080874</v>
+      </c>
+      <c r="K17">
+        <v>0.04075639270046363</v>
+      </c>
+      <c r="L17">
+        <v>0.01667181415454538</v>
+      </c>
+      <c r="M17">
+        <v>0.02332025426457501</v>
+      </c>
+      <c r="N17">
+        <v>0.1170946311630352</v>
+      </c>
+      <c r="O17">
+        <v>0.05404852237186916</v>
+      </c>
+      <c r="P17">
+        <v>0.02540122205764702</v>
+      </c>
+      <c r="Q17">
+        <v>0.01664800084769006</v>
+      </c>
+      <c r="R17">
+        <v>0.01447356423726321</v>
+      </c>
+      <c r="S17">
+        <v>0.01803433679893462</v>
+      </c>
+      <c r="T17">
+        <v>0.02940791692233129</v>
+      </c>
+      <c r="U17">
+        <v>0.02209053574851698</v>
+      </c>
+      <c r="V17">
+        <v>0.005531746171895312</v>
+      </c>
+      <c r="W17">
+        <v>0.00340356315435397</v>
+      </c>
+      <c r="X17">
+        <v>0.008743939471006195</v>
+      </c>
+      <c r="Y17">
+        <v>0.009136127839596709</v>
+      </c>
+      <c r="Z17">
+        <v>0.001008077115270757</v>
+      </c>
+      <c r="AA17">
+        <v>0.0165126367999506</v>
+      </c>
+      <c r="AB17">
+        <v>0.03812362563755525</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>2.2276852356505429E-2</v>
-      </c>
-      <c r="C16">
-        <v>1.413343742337651E-2</v>
-      </c>
-      <c r="D16">
-        <v>1.495476250470223E-2</v>
-      </c>
-      <c r="E16">
-        <v>0.1185706566711482</v>
-      </c>
-      <c r="F16">
-        <v>9.6927268499839396E-3</v>
-      </c>
-      <c r="G16">
-        <v>2.6407683929021809E-2</v>
-      </c>
-      <c r="H16">
-        <v>3.3183385322803717E-2</v>
-      </c>
-      <c r="I16">
-        <v>1.278242284757438E-2</v>
-      </c>
-      <c r="J16">
-        <v>9.7929621750161826E-3</v>
-      </c>
-      <c r="K16">
-        <v>2.569806106589035E-2</v>
-      </c>
-      <c r="L16">
-        <v>1.0103253355187679E-2</v>
-      </c>
-      <c r="M16">
-        <v>1.3147946867900049E-2</v>
-      </c>
-      <c r="N16">
-        <v>6.0745277174539987E-2</v>
-      </c>
-      <c r="O16">
-        <v>0.30996649367016288</v>
-      </c>
-      <c r="P16">
-        <v>5.9920384217100782E-2</v>
-      </c>
-      <c r="Q16">
-        <v>3.201133964868897E-2</v>
-      </c>
-      <c r="R16">
-        <v>9.7377659911234496E-3</v>
-      </c>
-      <c r="S16">
-        <v>3.9110826614353812E-2</v>
-      </c>
-      <c r="T16">
-        <v>4.0498251447352467E-2</v>
-      </c>
-      <c r="U16">
-        <v>1.7184800746503789E-2</v>
-      </c>
-      <c r="V16">
-        <v>2.1510637520503958E-3</v>
-      </c>
-      <c r="W16">
-        <v>5.0643805313658301E-2</v>
-      </c>
-      <c r="X16">
-        <v>4.5831545245142907E-2</v>
-      </c>
-      <c r="Y16">
-        <v>1.3246067533938999E-2</v>
-      </c>
-      <c r="Z16">
-        <v>8.2082272762727393E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17">
-        <v>0.15652227076986891</v>
-      </c>
-      <c r="C17">
-        <v>1.36852149457814E-2</v>
-      </c>
-      <c r="D17">
-        <v>7.0624644723831301E-2</v>
-      </c>
-      <c r="E17">
-        <v>3.6579916898959071E-2</v>
-      </c>
-      <c r="F17">
-        <v>8.5395366544934719E-3</v>
-      </c>
-      <c r="G17">
-        <v>4.166890678162976E-2</v>
-      </c>
-      <c r="H17">
-        <v>2.8937339737115809E-2</v>
-      </c>
-      <c r="I17">
-        <v>3.7787109988178143E-2</v>
-      </c>
-      <c r="J17">
-        <v>3.9903071476505821E-3</v>
-      </c>
-      <c r="K17">
-        <v>6.7343635741964024E-3</v>
-      </c>
-      <c r="L17">
-        <v>1.7176955556121452E-2</v>
-      </c>
-      <c r="M17">
-        <v>3.9300807209419607E-2</v>
-      </c>
-      <c r="N17">
-        <v>6.6649289197563993E-2</v>
-      </c>
-      <c r="O17">
-        <v>0.27322586893181539</v>
-      </c>
-      <c r="P17">
-        <v>1.401383762224747E-2</v>
-      </c>
-      <c r="Q17">
-        <v>8.0323513766296858E-3</v>
-      </c>
-      <c r="R17">
-        <v>7.4424460823656197E-2</v>
-      </c>
-      <c r="S17">
-        <v>1.788878961179332E-2</v>
-      </c>
-      <c r="T17">
-        <v>3.9271128446290542E-2</v>
-      </c>
-      <c r="U17">
-        <v>6.6987064438111497E-3</v>
-      </c>
-      <c r="V17">
-        <v>4.5265058483357721E-4</v>
-      </c>
-      <c r="W17">
-        <v>9.1155222036916339E-3</v>
-      </c>
-      <c r="X17">
-        <v>2.515074056033733E-2</v>
-      </c>
-      <c r="Y17">
-        <v>3.0623881716630949E-3</v>
-      </c>
-      <c r="Z17">
-        <v>4.6689203842060838E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18">
-        <v>5.6381202971553773E-2</v>
+        <v>0.1609302940916876</v>
       </c>
       <c r="C18">
-        <v>4.0617455800200106E-3</v>
+        <v>0.05766565033125654</v>
       </c>
       <c r="D18">
-        <v>0.137540658484156</v>
+        <v>0.04903887311965747</v>
       </c>
       <c r="E18">
-        <v>1.089887811231654E-2</v>
+        <v>0.2879066577065117</v>
       </c>
       <c r="F18">
-        <v>1.402262843353466E-2</v>
+        <v>0.1404606642292244</v>
       </c>
       <c r="G18">
-        <v>3.0105037923567311E-2</v>
+        <v>0.009977154409573851</v>
       </c>
       <c r="H18">
-        <v>3.8220536686418552E-3</v>
+        <v>0.00321964420085003</v>
       </c>
       <c r="I18">
-        <v>1.2626945958073021E-2</v>
+        <v>0.02015124161942899</v>
       </c>
       <c r="J18">
-        <v>2.2361730524043718E-3</v>
+        <v>0.004893085230378522</v>
       </c>
       <c r="K18">
-        <v>4.9111445877707176E-3</v>
+        <v>0.006499368505728752</v>
       </c>
       <c r="L18">
-        <v>6.256233774279832E-3</v>
+        <v>0.003306714128621389</v>
       </c>
       <c r="M18">
-        <v>1.8006754103297561E-2</v>
+        <v>0.009159431768932467</v>
       </c>
       <c r="N18">
-        <v>7.8058274431091951E-2</v>
+        <v>0.04849230824704369</v>
       </c>
       <c r="O18">
-        <v>0.4074008476209125</v>
+        <v>0.00376159418190528</v>
       </c>
       <c r="P18">
-        <v>1.034439343314383E-2</v>
+        <v>0.03267042649889727</v>
       </c>
       <c r="Q18">
-        <v>2.4654664145530188E-2</v>
+        <v>0.015766617302547</v>
       </c>
       <c r="R18">
-        <v>6.4904823670840855E-2</v>
+        <v>0.0572472598627174</v>
       </c>
       <c r="S18">
-        <v>3.037262414751166E-2</v>
+        <v>0.003172814160997354</v>
       </c>
       <c r="T18">
-        <v>1.9280961037719219E-2</v>
+        <v>0.006528096569587703</v>
       </c>
       <c r="U18">
-        <v>2.3812283892085868E-3</v>
+        <v>0.004767907773080457</v>
       </c>
       <c r="V18">
-        <v>8.7990334428098623E-4</v>
+        <v>0.02674973622710899</v>
       </c>
       <c r="W18">
-        <v>2.4108403536186419E-2</v>
+        <v>0.0009654402302231224</v>
       </c>
       <c r="X18">
-        <v>3.3477163555613747E-2</v>
+        <v>0.002525304474779614</v>
       </c>
       <c r="Y18">
-        <v>2.9168558421625791E-3</v>
+        <v>0.003468589078353887</v>
       </c>
       <c r="Z18">
-        <v>3.5040019618181261E-4</v>
+        <v>0.001241365181505335</v>
+      </c>
+      <c r="AA18">
+        <v>0.005850931062343558</v>
+      </c>
+      <c r="AB18">
+        <v>0.03358282980705758</v>
       </c>
     </row>
   </sheetData>
